--- a/input_files/contexts.xlsx
+++ b/input_files/contexts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0950D10-B10B-2A46-90D7-9696C4EA98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36E6B9-B39F-904F-925A-774400E941D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
       &lt;/xbrli:context&gt;</t>
   </si>
   <si>
-    <t>Business-Type Activites</t>
-  </si>
-  <si>
     <t>I20220630_BusinessTypeActivities</t>
   </si>
   <si>
@@ -736,6 +733,9 @@
         &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
       &lt;/xbrli:period&gt;
     &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Business-Type Activities</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1161,13 +1161,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,353 +1178,353 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1549,16 +1549,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1566,16 +1566,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1583,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1597,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1611,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -1625,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1639,13 +1639,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1653,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1667,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1681,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1695,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1709,13 +1709,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1723,13 +1723,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1737,13 +1737,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1751,13 +1751,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1780,67 +1780,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/input_files/contexts.xlsx
+++ b/input_files/contexts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36E6B9-B39F-904F-925A-774400E941D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920DD4D-EAF1-C747-9BEB-BD87D9FD5F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1126,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1336,7 +1336,7 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
